--- a/ems/document/生产调度系统任务开发时间.xlsx
+++ b/ems/document/生产调度系统任务开发时间.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\leon\ems\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>开始时间</t>
   </si>
@@ -188,15 +193,6 @@
   </si>
   <si>
     <t>故障维修情况汇总表</t>
-  </si>
-  <si>
-    <t>预计还会新增报表1</t>
-  </si>
-  <si>
-    <t>预计还会新增报表2</t>
-  </si>
-  <si>
-    <t>预计还会新增报表3</t>
   </si>
   <si>
     <t>工作事项维护</t>
@@ -316,6 +312,14 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.2.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,12 +381,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -424,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -692,1089 +699,854 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>42467</v>
+        <v>42536</v>
       </c>
       <c r="C2" s="1">
-        <v>42468</v>
+        <v>42553</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>42469</v>
+        <v>42553</v>
       </c>
       <c r="C3" s="1">
-        <v>42469</v>
+        <v>42553</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>42470</v>
+        <v>42554</v>
       </c>
       <c r="C4" s="1">
-        <v>42470</v>
+        <v>42554</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>42471</v>
+        <v>42555</v>
       </c>
       <c r="C5" s="1">
-        <v>42471</v>
+        <v>42555</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>42472</v>
+        <v>42534</v>
       </c>
       <c r="C6" s="1">
-        <v>42472</v>
+        <v>42536</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>42473</v>
+        <v>42556</v>
       </c>
       <c r="C7" s="1">
-        <v>42473</v>
+        <v>42556</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>42474</v>
+        <v>42556</v>
       </c>
       <c r="C8" s="1">
-        <v>42488</v>
+        <v>42556</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>42489</v>
+        <v>42550</v>
       </c>
       <c r="C9" s="1">
-        <v>42499</v>
+        <v>42550</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>42499</v>
+        <v>42551</v>
       </c>
       <c r="C10" s="1">
-        <v>42506</v>
+        <v>42551</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>42509</v>
+        <v>42551</v>
       </c>
       <c r="C11" s="1">
-        <v>42516</v>
+        <v>42552</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>42517</v>
+        <v>42534</v>
       </c>
       <c r="C12" s="1">
-        <v>42524</v>
+        <v>42536</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
-        <v>42524</v>
+        <v>42556</v>
       </c>
       <c r="C13" s="1">
-        <v>42537</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
+        <v>42582</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>42537</v>
+        <v>42583</v>
       </c>
       <c r="C14" s="1">
-        <v>42538</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
+        <v>42585</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
-        <v>42541</v>
+        <v>42586</v>
       </c>
       <c r="C15" s="1">
-        <v>42541</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>42542</v>
+        <v>42586</v>
       </c>
       <c r="C16" s="1">
-        <v>42542</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
-        <v>42543</v>
+        <v>42586</v>
       </c>
       <c r="C17" s="1">
-        <v>42544</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
-        <v>42544</v>
+        <v>42587</v>
       </c>
       <c r="C18" s="1">
-        <v>42544</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42545</v>
-      </c>
-      <c r="C19" s="1">
-        <v>42545</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
+        <v>42588</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>42545</v>
+        <v>42590</v>
       </c>
       <c r="C20" s="1">
-        <v>42548</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
+        <v>42593</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>42548</v>
+        <v>42594</v>
       </c>
       <c r="C21" s="1">
-        <v>42549</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
+        <v>42595</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
-        <v>42550</v>
+        <v>42596</v>
       </c>
       <c r="C22" s="1">
-        <v>42550</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
-        <v>42551</v>
+        <v>42598</v>
       </c>
       <c r="C23" s="1">
-        <v>42551</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
-        <v>42551</v>
+        <v>42601</v>
       </c>
       <c r="C24" s="1">
-        <v>42552</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
+        <v>42601</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
-        <v>42555</v>
+        <v>42602</v>
       </c>
       <c r="C25" s="1">
-        <v>42555</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
+        <v>42603</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>42555</v>
+        <v>42604</v>
       </c>
       <c r="C26" s="1">
-        <v>42562</v>
+        <v>42605</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>42562</v>
+        <v>42606</v>
       </c>
       <c r="C27" s="1">
-        <v>42570</v>
+        <v>42607</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>42570</v>
+        <v>42608</v>
       </c>
       <c r="C28" s="1">
-        <v>42578</v>
+        <v>42610</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>42578</v>
-      </c>
-      <c r="C29" s="1">
-        <v>42585</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
-        <v>42585</v>
+        <v>42614</v>
       </c>
       <c r="C30" s="1">
-        <v>42590</v>
+        <v>42618</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
-        <v>42590</v>
+        <v>42619</v>
       </c>
       <c r="C31" s="1">
-        <v>42593</v>
+        <v>42619</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
-        <v>42593</v>
+        <v>42620</v>
       </c>
       <c r="C32" s="1">
-        <v>42599</v>
+        <v>42623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
-        <v>42599</v>
+        <v>42623</v>
       </c>
       <c r="C33" s="1">
-        <v>42604</v>
+        <v>42625</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
-        <v>42604</v>
+        <v>42626</v>
       </c>
       <c r="C34" s="1">
-        <v>42607</v>
+        <v>42626</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1">
-        <v>42607</v>
+        <v>42627</v>
       </c>
       <c r="C35" s="1">
-        <v>42614</v>
+        <v>42632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42632</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42633</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1">
-        <v>42614</v>
+        <v>42634</v>
       </c>
       <c r="C37" s="1">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>42625</v>
-      </c>
-      <c r="C38" s="1">
-        <v>42628</v>
+        <v>42635</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
-        <v>42629</v>
-      </c>
-      <c r="C39" s="1">
-        <v>42629</v>
-      </c>
+        <v>42650</v>
+      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>42632</v>
-      </c>
-      <c r="C40" s="1">
-        <v>42632</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>42633</v>
-      </c>
-      <c r="C41" s="1">
-        <v>42633</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42633</v>
-      </c>
-      <c r="C43" s="1">
-        <v>42647</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <v>42647</v>
-      </c>
-      <c r="C44" s="1">
-        <v>42649</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>42649</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <v>42653</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>42653</v>
-      </c>
-      <c r="C46" s="1">
-        <v>42656</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1">
-        <v>42656</v>
-      </c>
-      <c r="C47" s="1">
-        <v>42660</v>
-      </c>
+        <v>42676</v>
+      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>42660</v>
-      </c>
-      <c r="C48" s="1">
-        <v>42663</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1">
-        <v>42663</v>
-      </c>
-      <c r="C49" s="1">
-        <v>42664</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1">
-        <v>42664</v>
-      </c>
-      <c r="C50" s="1">
-        <v>42671</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1">
-        <v>42671</v>
-      </c>
-      <c r="C52" s="1">
-        <v>42674</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1">
-        <v>42674</v>
-      </c>
-      <c r="C53" s="1">
-        <v>42678</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="1">
-        <v>42678</v>
-      </c>
-      <c r="C54" s="1">
-        <v>42681</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1">
-        <v>42681</v>
-      </c>
-      <c r="C55" s="1">
-        <v>42684</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1">
-        <v>42684</v>
-      </c>
-      <c r="C56" s="1">
-        <v>42685</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="1">
-        <v>42685</v>
-      </c>
-      <c r="C57" s="1">
-        <v>42689</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="1">
-        <v>42689</v>
-      </c>
-      <c r="C58" s="1">
-        <v>42696</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1">
-        <v>42696</v>
-      </c>
-      <c r="C59" s="1">
-        <v>42699</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>57</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>58</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>59</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="1">
-        <v>42699</v>
-      </c>
-      <c r="C64" s="1">
-        <v>42705</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1">
-        <v>42705</v>
-      </c>
-      <c r="C65" s="1">
-        <v>42709</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="1">
-        <v>42709</v>
-      </c>
-      <c r="C66" s="1">
-        <v>42712</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="1">
-        <v>42712</v>
-      </c>
-      <c r="C67" s="1">
-        <v>42717</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="1">
-        <v>42717</v>
-      </c>
-      <c r="C68" s="1">
-        <v>42725</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="1">
-        <v>42725</v>
-      </c>
-      <c r="C69" s="1">
-        <v>42730</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="1">
-        <v>42730</v>
-      </c>
-      <c r="C70" s="1">
-        <v>42732</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="1">
-        <v>42733</v>
-      </c>
-      <c r="C72" s="1">
-        <v>42733</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="1">
-        <v>42734</v>
-      </c>
-      <c r="C73" s="1">
-        <v>42740</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="1">
-        <v>42740</v>
-      </c>
-      <c r="C74" s="1">
-        <v>42746</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="1">
-        <v>42746</v>
-      </c>
-      <c r="C75" s="1">
-        <v>42748</v>
+        <v>91</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="1">
-        <v>42748</v>
-      </c>
-      <c r="C76" s="1">
-        <v>42752</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1">
-        <v>42752</v>
+        <v>42770</v>
       </c>
       <c r="C77" s="1">
-        <v>42758</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="1">
-        <v>42758</v>
-      </c>
-      <c r="C78" s="1">
-        <v>42765</v>
+        <v>42770</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
-        <v>42765</v>
-      </c>
-      <c r="C79" s="1">
-        <v>42766</v>
-      </c>
+        <v>42795</v>
+      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="1">
-        <v>42766</v>
-      </c>
-      <c r="C80" s="1">
-        <v>42767</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="1">
-        <v>42767</v>
-      </c>
-      <c r="C81" s="1">
-        <v>42773</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="1">
-        <v>42774</v>
-      </c>
-      <c r="C82" s="1">
-        <v>42776</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="1">
-        <v>42776</v>
-      </c>
-      <c r="C83" s="1">
-        <v>42780</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="1">
-        <v>42780</v>
-      </c>
-      <c r="C84" s="1">
-        <v>42782</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="1">
-        <v>42782</v>
-      </c>
-      <c r="C85" s="1">
-        <v>42783</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="1">
-        <v>42783</v>
-      </c>
-      <c r="C86" s="1">
-        <v>42787</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="1">
-        <v>42787</v>
-      </c>
-      <c r="C87" s="1">
-        <v>42793</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="1">
-        <v>42793</v>
-      </c>
-      <c r="C88" s="1">
-        <v>42796</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="1">
-        <v>42796</v>
-      </c>
-      <c r="C89" s="1">
-        <v>42800</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="1">
-        <v>42800</v>
-      </c>
-      <c r="C90" s="1">
-        <v>42803</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="1">
-        <v>42803</v>
-      </c>
-      <c r="C91" s="1">
-        <v>42807</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="1">
-        <v>42807</v>
-      </c>
-      <c r="C92" s="1">
-        <v>42809</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="1">
-        <v>42809</v>
-      </c>
-      <c r="C93" s="1">
-        <v>42811</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="1">
-        <v>42811</v>
-      </c>
-      <c r="C94" s="1">
-        <v>42815</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="1">
-        <v>42815</v>
-      </c>
-      <c r="C95" s="1">
-        <v>42816</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96" s="1">
-        <v>42816</v>
-      </c>
-      <c r="C96" s="1">
-        <v>42817</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="1">
-        <v>42817</v>
-      </c>
-      <c r="C97" s="1">
-        <v>42818</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="1">
-        <v>42818</v>
-      </c>
-      <c r="C98" s="1">
-        <v>42821</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="1">
-        <v>42821</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1">
-        <v>42822</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="1">
-        <v>42822</v>
-      </c>
-      <c r="C100" s="1">
-        <v>42829</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="1">
-        <v>42829</v>
-      </c>
-      <c r="C102" s="1">
-        <v>42831</v>
+        <v>42916</v>
       </c>
     </row>
   </sheetData>
